--- a/output/juan ciudad.xlsx
+++ b/output/juan ciudad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -759,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ99"/>
+  <dimension ref="A1:AM99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -768,7 +777,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,10 +886,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -979,15 +997,24 @@
         <v>0.2481028461661083</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>271439</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1086,15 +1113,24 @@
         <v>0.2481028461661083</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>445123</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1193,15 +1229,24 @@
         <v>0.2481028461661083</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>73451</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1300,15 +1345,24 @@
         <v>0.2481028461661083</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>596374</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1407,15 +1461,24 @@
         <v>0.2481028461661083</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>134094</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1514,15 +1577,24 @@
         <v>0.2481028461661083</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>36000</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1621,15 +1693,24 @@
         <v>0.2574249321989656</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>34024</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1728,15 +1809,24 @@
         <v>0.2574249321989656</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>998874</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1835,15 +1925,24 @@
         <v>0.2574249321989656</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>27996</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1942,15 +2041,24 @@
         <v>0.2574249321989656</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>60000</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2049,15 +2157,24 @@
         <v>0.2574249321989656</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>100268</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2156,15 +2273,24 @@
         <v>0.2574249321989656</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>102071</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2263,15 +2389,24 @@
         <v>0.2574249321989656</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>15000</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2370,15 +2505,24 @@
         <v>0.2574249321989656</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>206085</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2477,15 +2621,24 @@
         <v>0.2574249321989656</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>22422</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2584,15 +2737,24 @@
         <v>0.2574249321989656</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>322927</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2691,15 +2853,24 @@
         <v>0.2574249321989656</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>78000</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2798,15 +2969,24 @@
         <v>0.2574249321989656</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>145081</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2905,15 +3085,24 @@
         <v>0.5857104969265715</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>3980</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3012,15 +3201,24 @@
         <v>0.5857104969265715</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3119,15 +3317,24 @@
         <v>0.5857104969265715</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>34461</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3226,15 +3433,24 @@
         <v>0.5857104969265715</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>2938</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3333,15 +3549,24 @@
         <v>0.5857104969265715</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>28637</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3440,15 +3665,24 @@
         <v>0.5857104969265715</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>26000</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3547,15 +3781,24 @@
         <v>0.5857104969265715</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>46000</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3654,15 +3897,24 @@
         <v>0.5857104969265715</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>80915</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3761,15 +4013,24 @@
         <v>0.5857104969265715</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>30000</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3868,15 +4129,24 @@
         <v>0.5857104969265715</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>50000</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3975,15 +4245,24 @@
         <v>0.5857104969265715</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>50784</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4082,15 +4361,24 @@
         <v>0.5857104969265715</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>185434</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4189,15 +4477,24 @@
         <v>0.5857104969265715</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>660</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4296,15 +4593,24 @@
         <v>0.5857104969265715</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>218486</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4403,15 +4709,24 @@
         <v>0.5857104969265715</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>701000</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4510,15 +4825,24 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>4159</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4617,15 +4941,24 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>87677.5</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -4724,15 +5057,24 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>20958.52</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4831,15 +5173,24 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>57609.5</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4938,15 +5289,24 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>9371.459999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5045,15 +5405,24 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>27900</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5152,15 +5521,24 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>5684.5</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5259,15 +5637,24 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>1500</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5366,15 +5753,24 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>7696</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5473,15 +5869,24 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>27500</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5580,15 +5985,24 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>70000</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5687,15 +6101,24 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>156416</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -5794,15 +6217,24 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>4159</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5901,15 +6333,24 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>87677.5</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6008,15 +6449,24 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>20958.52</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6115,15 +6565,24 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>57609.5</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -6222,15 +6681,24 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>9371.459999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6329,15 +6797,24 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>27900</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6436,15 +6913,24 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>5684.5</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6543,15 +7029,24 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6650,15 +7145,24 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>7696</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6757,15 +7261,24 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>1</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>27500</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6864,15 +7377,24 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>70000</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6971,15 +7493,24 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>1</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>156416</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7078,15 +7609,24 @@
         <v>0.9807233344157935</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>1950</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7185,15 +7725,24 @@
         <v>0.9807233344157935</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>1</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>5635.95</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7292,15 +7841,24 @@
         <v>0.9807233344157935</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>96200</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7399,15 +7957,24 @@
         <v>0.9807233344157935</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>3000</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7506,15 +8073,24 @@
         <v>0.9807233344157935</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>1</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>23140.5</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7613,15 +8189,24 @@
         <v>0.9807233344157935</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>1</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>1516.5</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7720,15 +8305,24 @@
         <v>0.9807233344157935</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>9450</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7827,15 +8421,24 @@
         <v>0.9807233344157935</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>22692.5</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -7934,15 +8537,24 @@
         <v>0.9807233344157935</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>127500</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -8041,15 +8653,24 @@
         <v>0.9807233344157935</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>5000</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8148,15 +8769,24 @@
         <v>0.9807233344157935</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>1</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>22446</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -8255,15 +8885,24 @@
         <v>0.9807233344157935</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>18786.62</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8362,15 +9001,24 @@
         <v>0.9807233344157935</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>21627.605</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8469,15 +9117,24 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>1950</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8576,15 +9233,24 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>1</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>5635.95</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8683,15 +9349,24 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>96200</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -8790,15 +9465,24 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>1</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>3000</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -8897,15 +9581,24 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>1</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>23140.5</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9004,15 +9697,24 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>1</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>1516.5</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9111,15 +9813,24 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>9450</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9218,15 +9929,24 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>22692.5</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -9325,15 +10045,24 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>127500</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -9432,15 +10161,24 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -9539,15 +10277,24 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>1</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>22446</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -9646,15 +10393,24 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>18786.62</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -9753,15 +10509,24 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>21627.605</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -9860,15 +10625,24 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>1</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>1229</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -9967,15 +10741,24 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>1</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>322790</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10074,15 +10857,24 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>202182</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10181,21 +10973,30 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>1</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>36258</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -10288,15 +11089,24 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>1</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>49521</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -10395,15 +11205,24 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>1</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>108374</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -10502,15 +11321,24 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI91">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
         <v>38992</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -10609,15 +11437,24 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>1</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
         <v>60000</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -10716,15 +11553,24 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI93">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>0</v>
+      </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
+      <c r="AM93">
         <v>43691</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -10823,15 +11669,24 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI94">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>1</v>
+      </c>
+      <c r="AM94">
         <v>403944</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -10930,15 +11785,24 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI95">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>1</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95">
         <v>100761</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -11037,15 +11901,24 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI96">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
+      <c r="AM96">
         <v>56902</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:39">
       <c r="A97" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -11144,21 +12017,30 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI97">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ97">
+        <v>0</v>
+      </c>
+      <c r="AK97">
+        <v>0</v>
+      </c>
+      <c r="AL97">
+        <v>1</v>
+      </c>
+      <c r="AM97">
         <v>61407</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:39">
       <c r="A98" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -11251,15 +12133,24 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI98">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ98">
+        <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>1</v>
+      </c>
+      <c r="AL98">
+        <v>1</v>
+      </c>
+      <c r="AM98">
         <v>12000</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:39">
       <c r="A99" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -11358,9 +12249,18 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI99">
-        <v>1</v>
+        <v>1991</v>
       </c>
       <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
+      <c r="AL99">
+        <v>1</v>
+      </c>
+      <c r="AM99">
         <v>7300</v>
       </c>
     </row>

--- a/output/juan ciudad.xlsx
+++ b/output/juan ciudad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -768,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM99"/>
+  <dimension ref="A1:AO99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -777,7 +783,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,10 +901,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -955,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>740848</v>
+        <v>762370</v>
       </c>
       <c r="U2">
         <v>7</v>
@@ -991,30 +1003,36 @@
         <v>2214761</v>
       </c>
       <c r="AG2">
-        <v>2986052</v>
+        <v>3007574</v>
       </c>
       <c r="AH2">
-        <v>0.2481028461661083</v>
+        <v>0.2534833723127012</v>
       </c>
       <c r="AI2">
+        <v>0.1662469485372596</v>
+      </c>
+      <c r="AJ2">
         <v>1991</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>271439</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1071,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>740848</v>
+        <v>762370</v>
       </c>
       <c r="U3">
         <v>7</v>
@@ -1107,30 +1125,36 @@
         <v>3881838</v>
       </c>
       <c r="AG3">
-        <v>2986052</v>
+        <v>3007574</v>
       </c>
       <c r="AH3">
-        <v>0.2481028461661083</v>
+        <v>0.2534833723127012</v>
       </c>
       <c r="AI3">
+        <v>0.1662469485372596</v>
+      </c>
+      <c r="AJ3">
         <v>1991</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>445123</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1187,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>740848</v>
+        <v>762370</v>
       </c>
       <c r="U4">
         <v>7</v>
@@ -1223,30 +1247,36 @@
         <v>4266738</v>
       </c>
       <c r="AG4">
-        <v>2986052</v>
+        <v>3007574</v>
       </c>
       <c r="AH4">
-        <v>0.2481028461661083</v>
+        <v>0.2534833723127012</v>
       </c>
       <c r="AI4">
+        <v>0.1662469485372596</v>
+      </c>
+      <c r="AJ4">
         <v>1991</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>73451</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1303,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>740848</v>
+        <v>762370</v>
       </c>
       <c r="U5">
         <v>7</v>
@@ -1339,30 +1369,36 @@
         <v>2282830</v>
       </c>
       <c r="AG5">
-        <v>2986052</v>
+        <v>3007574</v>
       </c>
       <c r="AH5">
-        <v>0.2481028461661083</v>
+        <v>0.2534833723127012</v>
       </c>
       <c r="AI5">
+        <v>0.1662469485372596</v>
+      </c>
+      <c r="AJ5">
         <v>1991</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>596374</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1419,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>740848</v>
+        <v>762370</v>
       </c>
       <c r="U6">
         <v>7</v>
@@ -1455,30 +1491,36 @@
         <v>5201043</v>
       </c>
       <c r="AG6">
-        <v>2986052</v>
+        <v>3007574</v>
       </c>
       <c r="AH6">
-        <v>0.2481028461661083</v>
+        <v>0.2534833723127012</v>
       </c>
       <c r="AI6">
+        <v>0.1662469485372596</v>
+      </c>
+      <c r="AJ6">
         <v>1991</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>134094</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1535,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>740848</v>
+        <v>762370</v>
       </c>
       <c r="U7">
         <v>7</v>
@@ -1571,30 +1613,36 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>2986052</v>
+        <v>3007574</v>
       </c>
       <c r="AH7">
-        <v>0.2481028461661083</v>
+        <v>0.2534833723127012</v>
       </c>
       <c r="AI7">
+        <v>0.1662469485372596</v>
+      </c>
+      <c r="AJ7">
         <v>1991</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>36000</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1651,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>232742</v>
+        <v>1437440</v>
       </c>
       <c r="U8">
         <v>7</v>
@@ -1687,30 +1735,36 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>904116</v>
+        <v>2108814</v>
       </c>
       <c r="AH8">
-        <v>0.2574249321989656</v>
+        <v>0.6816343214716898</v>
       </c>
       <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>1991</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>34024</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1767,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>232742</v>
+        <v>1437440</v>
       </c>
       <c r="U9">
         <v>7</v>
@@ -1803,30 +1857,36 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>904116</v>
+        <v>2108814</v>
       </c>
       <c r="AH9">
-        <v>0.2574249321989656</v>
+        <v>0.6816343214716898</v>
       </c>
       <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
         <v>1991</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>998874</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1883,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>232742</v>
+        <v>1437440</v>
       </c>
       <c r="U10">
         <v>7</v>
@@ -1919,30 +1979,36 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>904116</v>
+        <v>2108814</v>
       </c>
       <c r="AH10">
-        <v>0.2574249321989656</v>
+        <v>0.6816343214716898</v>
       </c>
       <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>1991</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>27996</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1999,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>232742</v>
+        <v>1437440</v>
       </c>
       <c r="U11">
         <v>7</v>
@@ -2035,30 +2101,36 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>904116</v>
+        <v>2108814</v>
       </c>
       <c r="AH11">
-        <v>0.2574249321989656</v>
+        <v>0.6816343214716898</v>
       </c>
       <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
         <v>1991</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>60000</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2115,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>232742</v>
+        <v>1437440</v>
       </c>
       <c r="U12">
         <v>7</v>
@@ -2151,30 +2223,36 @@
         <v>5136929</v>
       </c>
       <c r="AG12">
-        <v>904116</v>
+        <v>2108814</v>
       </c>
       <c r="AH12">
-        <v>0.2574249321989656</v>
+        <v>0.6816343214716898</v>
       </c>
       <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>1991</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>100268</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2231,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>232742</v>
+        <v>1437440</v>
       </c>
       <c r="U13">
         <v>7</v>
@@ -2267,30 +2345,36 @@
         <v>10267085.83333333</v>
       </c>
       <c r="AG13">
-        <v>904116</v>
+        <v>2108814</v>
       </c>
       <c r="AH13">
-        <v>0.2574249321989656</v>
+        <v>0.6816343214716898</v>
       </c>
       <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>1991</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>1</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>102071</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2347,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>232742</v>
+        <v>1437440</v>
       </c>
       <c r="U14">
         <v>7</v>
@@ -2383,30 +2467,36 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>904116</v>
+        <v>2108814</v>
       </c>
       <c r="AH14">
-        <v>0.2574249321989656</v>
+        <v>0.6816343214716898</v>
       </c>
       <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>1991</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>15000</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2463,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>232742</v>
+        <v>1437440</v>
       </c>
       <c r="U15">
         <v>7</v>
@@ -2499,30 +2589,36 @@
         <v>38993399</v>
       </c>
       <c r="AG15">
-        <v>904116</v>
+        <v>2108814</v>
       </c>
       <c r="AH15">
-        <v>0.2574249321989656</v>
+        <v>0.6816343214716898</v>
       </c>
       <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
         <v>1991</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
         <v>1</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>206085</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2579,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>232742</v>
+        <v>1437440</v>
       </c>
       <c r="U16">
         <v>7</v>
@@ -2615,30 +2711,36 @@
         <v>32846422</v>
       </c>
       <c r="AG16">
-        <v>904116</v>
+        <v>2108814</v>
       </c>
       <c r="AH16">
-        <v>0.2574249321989656</v>
+        <v>0.6816343214716898</v>
       </c>
       <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>1991</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16">
         <v>1</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>22422</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2695,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>232742</v>
+        <v>1437440</v>
       </c>
       <c r="U17">
         <v>7</v>
@@ -2731,30 +2833,36 @@
         <v>27999397</v>
       </c>
       <c r="AG17">
-        <v>904116</v>
+        <v>2108814</v>
       </c>
       <c r="AH17">
-        <v>0.2574249321989656</v>
+        <v>0.6816343214716898</v>
       </c>
       <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
         <v>1991</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17">
         <v>1</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>322927</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2811,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>232742</v>
+        <v>1437440</v>
       </c>
       <c r="U18">
         <v>7</v>
@@ -2847,30 +2955,36 @@
         <v>10283677</v>
       </c>
       <c r="AG18">
-        <v>904116</v>
+        <v>2108814</v>
       </c>
       <c r="AH18">
-        <v>0.2574249321989656</v>
+        <v>0.6816343214716898</v>
       </c>
       <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
         <v>1991</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>78000</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2927,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>232742</v>
+        <v>1437440</v>
       </c>
       <c r="U19">
         <v>7</v>
@@ -2963,30 +3077,36 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>904116</v>
+        <v>2108814</v>
       </c>
       <c r="AH19">
-        <v>0.2574249321989656</v>
+        <v>0.6816343214716898</v>
       </c>
       <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
         <v>1991</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>145081</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3043,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1623200</v>
+        <v>1639771</v>
       </c>
       <c r="U20">
         <v>7</v>
@@ -3079,30 +3199,36 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>2771335</v>
+        <v>2787906</v>
       </c>
       <c r="AH20">
-        <v>0.5857104969265715</v>
+        <v>0.5881729871810599</v>
       </c>
       <c r="AI20">
+        <v>0.1819501805297596</v>
+      </c>
+      <c r="AJ20">
         <v>1991</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>3980</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3159,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1623200</v>
+        <v>1639771</v>
       </c>
       <c r="U21">
         <v>7</v>
@@ -3195,30 +3321,36 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>2771335</v>
+        <v>2787906</v>
       </c>
       <c r="AH21">
-        <v>0.5857104969265715</v>
+        <v>0.5881729871810599</v>
       </c>
       <c r="AI21">
+        <v>0.1819501805297596</v>
+      </c>
+      <c r="AJ21">
         <v>1991</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3275,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>1623200</v>
+        <v>1639771</v>
       </c>
       <c r="U22">
         <v>7</v>
@@ -3311,30 +3443,36 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>2771335</v>
+        <v>2787906</v>
       </c>
       <c r="AH22">
-        <v>0.5857104969265715</v>
+        <v>0.5881729871810599</v>
       </c>
       <c r="AI22">
+        <v>0.1819501805297596</v>
+      </c>
+      <c r="AJ22">
         <v>1991</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>34461</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3391,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1623200</v>
+        <v>1639771</v>
       </c>
       <c r="U23">
         <v>7</v>
@@ -3427,30 +3565,36 @@
         <v>1441836</v>
       </c>
       <c r="AG23">
-        <v>2771335</v>
+        <v>2787906</v>
       </c>
       <c r="AH23">
-        <v>0.5857104969265715</v>
+        <v>0.5881729871810599</v>
       </c>
       <c r="AI23">
+        <v>0.1819501805297596</v>
+      </c>
+      <c r="AJ23">
         <v>1991</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>2938</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3507,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1623200</v>
+        <v>1639771</v>
       </c>
       <c r="U24">
         <v>7</v>
@@ -3543,30 +3687,36 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>2771335</v>
+        <v>2787906</v>
       </c>
       <c r="AH24">
-        <v>0.5857104969265715</v>
+        <v>0.5881729871810599</v>
       </c>
       <c r="AI24">
+        <v>0.1819501805297596</v>
+      </c>
+      <c r="AJ24">
         <v>1991</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>28637</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3623,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1623200</v>
+        <v>1639771</v>
       </c>
       <c r="U25">
         <v>7</v>
@@ -3659,30 +3809,36 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>2771335</v>
+        <v>2787906</v>
       </c>
       <c r="AH25">
-        <v>0.5857104969265715</v>
+        <v>0.5881729871810599</v>
       </c>
       <c r="AI25">
+        <v>0.1819501805297596</v>
+      </c>
+      <c r="AJ25">
         <v>1991</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>26000</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3739,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>1623200</v>
+        <v>1639771</v>
       </c>
       <c r="U26">
         <v>7</v>
@@ -3775,30 +3931,36 @@
         <v>1498796</v>
       </c>
       <c r="AG26">
-        <v>2771335</v>
+        <v>2787906</v>
       </c>
       <c r="AH26">
-        <v>0.5857104969265715</v>
+        <v>0.5881729871810599</v>
       </c>
       <c r="AI26">
+        <v>0.1819501805297596</v>
+      </c>
+      <c r="AJ26">
         <v>1991</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>46000</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3855,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1623200</v>
+        <v>1639771</v>
       </c>
       <c r="U27">
         <v>7</v>
@@ -3891,30 +4053,36 @@
         <v>2070562</v>
       </c>
       <c r="AG27">
-        <v>2771335</v>
+        <v>2787906</v>
       </c>
       <c r="AH27">
-        <v>0.5857104969265715</v>
+        <v>0.5881729871810599</v>
       </c>
       <c r="AI27">
+        <v>0.1819501805297596</v>
+      </c>
+      <c r="AJ27">
         <v>1991</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>80915</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3971,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1623200</v>
+        <v>1639771</v>
       </c>
       <c r="U28">
         <v>7</v>
@@ -4007,30 +4175,36 @@
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>2771335</v>
+        <v>2787906</v>
       </c>
       <c r="AH28">
-        <v>0.5857104969265715</v>
+        <v>0.5881729871810599</v>
       </c>
       <c r="AI28">
+        <v>0.1819501805297596</v>
+      </c>
+      <c r="AJ28">
         <v>1991</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <v>1</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>30000</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4087,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1623200</v>
+        <v>1639771</v>
       </c>
       <c r="U29">
         <v>7</v>
@@ -4123,30 +4297,36 @@
         <v>0</v>
       </c>
       <c r="AG29">
-        <v>2771335</v>
+        <v>2787906</v>
       </c>
       <c r="AH29">
-        <v>0.5857104969265715</v>
+        <v>0.5881729871810599</v>
       </c>
       <c r="AI29">
+        <v>0.1819501805297596</v>
+      </c>
+      <c r="AJ29">
         <v>1991</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>50000</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4203,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>1623200</v>
+        <v>1639771</v>
       </c>
       <c r="U30">
         <v>7</v>
@@ -4239,30 +4419,36 @@
         <v>2169360</v>
       </c>
       <c r="AG30">
-        <v>2771335</v>
+        <v>2787906</v>
       </c>
       <c r="AH30">
-        <v>0.5857104969265715</v>
+        <v>0.5881729871810599</v>
       </c>
       <c r="AI30">
+        <v>0.1819501805297596</v>
+      </c>
+      <c r="AJ30">
         <v>1991</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>50784</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4319,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1623200</v>
+        <v>1639771</v>
       </c>
       <c r="U31">
         <v>7</v>
@@ -4355,30 +4541,36 @@
         <v>1772730</v>
       </c>
       <c r="AG31">
-        <v>2771335</v>
+        <v>2787906</v>
       </c>
       <c r="AH31">
-        <v>0.5857104969265715</v>
+        <v>0.5881729871810599</v>
       </c>
       <c r="AI31">
+        <v>0.1819501805297596</v>
+      </c>
+      <c r="AJ31">
         <v>1991</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>185434</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4435,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>1623200</v>
+        <v>1639771</v>
       </c>
       <c r="U32">
         <v>7</v>
@@ -4471,30 +4663,36 @@
         <v>2299220</v>
       </c>
       <c r="AG32">
-        <v>2771335</v>
+        <v>2787906</v>
       </c>
       <c r="AH32">
-        <v>0.5857104969265715</v>
+        <v>0.5881729871810599</v>
       </c>
       <c r="AI32">
+        <v>0.1819501805297596</v>
+      </c>
+      <c r="AJ32">
         <v>1991</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
         <v>1</v>
       </c>
       <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>660</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4551,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1623200</v>
+        <v>1639771</v>
       </c>
       <c r="U33">
         <v>7</v>
@@ -4587,30 +4785,36 @@
         <v>2304887</v>
       </c>
       <c r="AG33">
-        <v>2771335</v>
+        <v>2787906</v>
       </c>
       <c r="AH33">
-        <v>0.5857104969265715</v>
+        <v>0.5881729871810599</v>
       </c>
       <c r="AI33">
+        <v>0.1819501805297596</v>
+      </c>
+      <c r="AJ33">
         <v>1991</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>1</v>
       </c>
       <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>218486</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4667,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>1623200</v>
+        <v>1639771</v>
       </c>
       <c r="U34">
         <v>7</v>
@@ -4703,30 +4907,36 @@
         <v>0</v>
       </c>
       <c r="AG34">
-        <v>2771335</v>
+        <v>2787906</v>
       </c>
       <c r="AH34">
-        <v>0.5857104969265715</v>
+        <v>0.5881729871810599</v>
       </c>
       <c r="AI34">
+        <v>0.1819501805297596</v>
+      </c>
+      <c r="AJ34">
         <v>1991</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>701000</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4786,16 +4996,16 @@
         <v>2340293.76</v>
       </c>
       <c r="U35">
-        <v>9</v>
+        <v>1932.6</v>
       </c>
       <c r="V35">
-        <v>1</v>
+        <v>651</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>3679</v>
       </c>
       <c r="X35">
-        <v>10</v>
+        <v>6262.6</v>
       </c>
       <c r="Z35">
         <v>1</v>
@@ -4825,24 +5035,30 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
         <v>1991</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>4159</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4902,16 +5118,16 @@
         <v>2340293.76</v>
       </c>
       <c r="U36">
-        <v>9</v>
+        <v>1932.6</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>651</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>3679</v>
       </c>
       <c r="X36">
-        <v>10</v>
+        <v>6262.6</v>
       </c>
       <c r="Z36">
         <v>1</v>
@@ -4941,24 +5157,30 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
         <v>1991</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>87677.5</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5018,16 +5240,16 @@
         <v>2340293.76</v>
       </c>
       <c r="U37">
-        <v>9</v>
+        <v>1932.6</v>
       </c>
       <c r="V37">
-        <v>1</v>
+        <v>651</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>3679</v>
       </c>
       <c r="X37">
-        <v>10</v>
+        <v>6262.6</v>
       </c>
       <c r="Z37">
         <v>1</v>
@@ -5057,24 +5279,30 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
         <v>1991</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>20958.52</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5134,16 +5362,16 @@
         <v>2340293.76</v>
       </c>
       <c r="U38">
-        <v>9</v>
+        <v>1932.6</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>651</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>3679</v>
       </c>
       <c r="X38">
-        <v>10</v>
+        <v>6262.6</v>
       </c>
       <c r="Z38">
         <v>1</v>
@@ -5173,24 +5401,30 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
         <v>1991</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>57609.5</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5250,16 +5484,16 @@
         <v>2340293.76</v>
       </c>
       <c r="U39">
-        <v>9</v>
+        <v>1932.6</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>651</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>3679</v>
       </c>
       <c r="X39">
-        <v>10</v>
+        <v>6262.6</v>
       </c>
       <c r="Z39">
         <v>1</v>
@@ -5289,24 +5523,30 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
         <v>1991</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>9371.459999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5366,16 +5606,16 @@
         <v>2340293.76</v>
       </c>
       <c r="U40">
-        <v>9</v>
+        <v>1932.6</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>651</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>3679</v>
       </c>
       <c r="X40">
-        <v>10</v>
+        <v>6262.6</v>
       </c>
       <c r="Z40">
         <v>1</v>
@@ -5405,24 +5645,30 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
         <v>1991</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>27900</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5482,16 +5728,16 @@
         <v>2340293.76</v>
       </c>
       <c r="U41">
-        <v>9</v>
+        <v>1932.6</v>
       </c>
       <c r="V41">
-        <v>1</v>
+        <v>651</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>3679</v>
       </c>
       <c r="X41">
-        <v>10</v>
+        <v>6262.6</v>
       </c>
       <c r="Z41">
         <v>1</v>
@@ -5521,24 +5767,30 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
         <v>1991</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>5684.5</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5598,16 +5850,16 @@
         <v>2340293.76</v>
       </c>
       <c r="U42">
-        <v>9</v>
+        <v>1932.6</v>
       </c>
       <c r="V42">
-        <v>1</v>
+        <v>651</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>3679</v>
       </c>
       <c r="X42">
-        <v>10</v>
+        <v>6262.6</v>
       </c>
       <c r="Z42">
         <v>1</v>
@@ -5637,24 +5889,30 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
         <v>1991</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42">
         <v>1</v>
       </c>
       <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>1500</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5714,16 +5972,16 @@
         <v>2340293.76</v>
       </c>
       <c r="U43">
-        <v>9</v>
+        <v>1932.6</v>
       </c>
       <c r="V43">
-        <v>1</v>
+        <v>651</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>3679</v>
       </c>
       <c r="X43">
-        <v>10</v>
+        <v>6262.6</v>
       </c>
       <c r="Z43">
         <v>1</v>
@@ -5753,24 +6011,30 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
         <v>1991</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43">
         <v>1</v>
       </c>
       <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>7696</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5830,16 +6094,16 @@
         <v>2340293.76</v>
       </c>
       <c r="U44">
-        <v>9</v>
+        <v>1932.6</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>651</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>3679</v>
       </c>
       <c r="X44">
-        <v>10</v>
+        <v>6262.6</v>
       </c>
       <c r="Z44">
         <v>1</v>
@@ -5869,24 +6133,30 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
         <v>1991</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44">
         <v>1</v>
       </c>
       <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>27500</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5946,16 +6216,16 @@
         <v>2340293.76</v>
       </c>
       <c r="U45">
-        <v>9</v>
+        <v>1932.6</v>
       </c>
       <c r="V45">
-        <v>1</v>
+        <v>651</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>3679</v>
       </c>
       <c r="X45">
-        <v>10</v>
+        <v>6262.6</v>
       </c>
       <c r="Z45">
         <v>1</v>
@@ -5985,24 +6255,30 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
         <v>1991</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
         <v>1</v>
       </c>
       <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>70000</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6062,16 +6338,16 @@
         <v>2340293.76</v>
       </c>
       <c r="U46">
-        <v>9</v>
+        <v>1932.6</v>
       </c>
       <c r="V46">
-        <v>1</v>
+        <v>651</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>3679</v>
       </c>
       <c r="X46">
-        <v>10</v>
+        <v>6262.6</v>
       </c>
       <c r="Z46">
         <v>1</v>
@@ -6101,24 +6377,30 @@
         <v>0.9093275645580775</v>
       </c>
       <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
         <v>1991</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46">
         <v>1</v>
       </c>
       <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>156416</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -6178,16 +6460,16 @@
         <v>2795307.2</v>
       </c>
       <c r="U47">
-        <v>9</v>
+        <v>1797.23</v>
       </c>
       <c r="V47">
-        <v>1</v>
+        <v>576</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>3730</v>
       </c>
       <c r="X47">
-        <v>10</v>
+        <v>6103.23</v>
       </c>
       <c r="Z47">
         <v>1</v>
@@ -6217,24 +6499,30 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI47">
+        <v>-0.005277973061487857</v>
+      </c>
+      <c r="AJ47">
         <v>1991</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>4159</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6294,16 +6582,16 @@
         <v>2795307.2</v>
       </c>
       <c r="U48">
-        <v>9</v>
+        <v>1797.23</v>
       </c>
       <c r="V48">
-        <v>1</v>
+        <v>576</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>3730</v>
       </c>
       <c r="X48">
-        <v>10</v>
+        <v>6103.23</v>
       </c>
       <c r="Z48">
         <v>1</v>
@@ -6333,24 +6621,30 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI48">
+        <v>-0.005277973061487857</v>
+      </c>
+      <c r="AJ48">
         <v>1991</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
         <v>0</v>
       </c>
       <c r="AL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>87677.5</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6410,16 +6704,16 @@
         <v>2795307.2</v>
       </c>
       <c r="U49">
-        <v>9</v>
+        <v>1797.23</v>
       </c>
       <c r="V49">
-        <v>1</v>
+        <v>576</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>3730</v>
       </c>
       <c r="X49">
-        <v>10</v>
+        <v>6103.23</v>
       </c>
       <c r="Z49">
         <v>1</v>
@@ -6449,24 +6743,30 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI49">
+        <v>-0.005277973061487857</v>
+      </c>
+      <c r="AJ49">
         <v>1991</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>20958.52</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6526,16 +6826,16 @@
         <v>2795307.2</v>
       </c>
       <c r="U50">
-        <v>9</v>
+        <v>1797.23</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <v>576</v>
       </c>
       <c r="W50">
-        <v>0</v>
+        <v>3730</v>
       </c>
       <c r="X50">
-        <v>10</v>
+        <v>6103.23</v>
       </c>
       <c r="Z50">
         <v>1</v>
@@ -6565,24 +6865,30 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI50">
+        <v>-0.005277973061487857</v>
+      </c>
+      <c r="AJ50">
         <v>1991</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>57609.5</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -6642,16 +6948,16 @@
         <v>2795307.2</v>
       </c>
       <c r="U51">
-        <v>9</v>
+        <v>1797.23</v>
       </c>
       <c r="V51">
-        <v>1</v>
+        <v>576</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>3730</v>
       </c>
       <c r="X51">
-        <v>10</v>
+        <v>6103.23</v>
       </c>
       <c r="Z51">
         <v>1</v>
@@ -6681,24 +6987,30 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI51">
+        <v>-0.005277973061487857</v>
+      </c>
+      <c r="AJ51">
         <v>1991</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>9371.459999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6758,16 +7070,16 @@
         <v>2795307.2</v>
       </c>
       <c r="U52">
-        <v>9</v>
+        <v>1797.23</v>
       </c>
       <c r="V52">
-        <v>1</v>
+        <v>576</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>3730</v>
       </c>
       <c r="X52">
-        <v>10</v>
+        <v>6103.23</v>
       </c>
       <c r="Z52">
         <v>1</v>
@@ -6797,24 +7109,30 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI52">
+        <v>-0.005277973061487857</v>
+      </c>
+      <c r="AJ52">
         <v>1991</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
         <v>0</v>
       </c>
       <c r="AL52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>27900</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6874,16 +7192,16 @@
         <v>2795307.2</v>
       </c>
       <c r="U53">
-        <v>9</v>
+        <v>1797.23</v>
       </c>
       <c r="V53">
-        <v>1</v>
+        <v>576</v>
       </c>
       <c r="W53">
-        <v>0</v>
+        <v>3730</v>
       </c>
       <c r="X53">
-        <v>10</v>
+        <v>6103.23</v>
       </c>
       <c r="Z53">
         <v>1</v>
@@ -6913,24 +7231,30 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI53">
+        <v>-0.005277973061487857</v>
+      </c>
+      <c r="AJ53">
         <v>1991</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
         <v>0</v>
       </c>
       <c r="AL53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>5684.5</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6990,16 +7314,16 @@
         <v>2795307.2</v>
       </c>
       <c r="U54">
-        <v>9</v>
+        <v>1797.23</v>
       </c>
       <c r="V54">
-        <v>1</v>
+        <v>576</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>3730</v>
       </c>
       <c r="X54">
-        <v>10</v>
+        <v>6103.23</v>
       </c>
       <c r="Z54">
         <v>1</v>
@@ -7029,24 +7353,30 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI54">
+        <v>-0.005277973061487857</v>
+      </c>
+      <c r="AJ54">
         <v>1991</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54">
         <v>1</v>
       </c>
       <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7106,16 +7436,16 @@
         <v>2795307.2</v>
       </c>
       <c r="U55">
-        <v>9</v>
+        <v>1797.23</v>
       </c>
       <c r="V55">
-        <v>1</v>
+        <v>576</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>3730</v>
       </c>
       <c r="X55">
-        <v>10</v>
+        <v>6103.23</v>
       </c>
       <c r="Z55">
         <v>1</v>
@@ -7145,24 +7475,30 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI55">
+        <v>-0.005277973061487857</v>
+      </c>
+      <c r="AJ55">
         <v>1991</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55">
         <v>1</v>
       </c>
       <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>7696</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7222,16 +7558,16 @@
         <v>2795307.2</v>
       </c>
       <c r="U56">
-        <v>9</v>
+        <v>1797.23</v>
       </c>
       <c r="V56">
-        <v>1</v>
+        <v>576</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>3730</v>
       </c>
       <c r="X56">
-        <v>10</v>
+        <v>6103.23</v>
       </c>
       <c r="Z56">
         <v>1</v>
@@ -7261,24 +7597,30 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI56">
+        <v>-0.005277973061487857</v>
+      </c>
+      <c r="AJ56">
         <v>1991</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56">
         <v>1</v>
       </c>
       <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>27500</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7338,16 +7680,16 @@
         <v>2795307.2</v>
       </c>
       <c r="U57">
-        <v>9</v>
+        <v>1797.23</v>
       </c>
       <c r="V57">
-        <v>1</v>
+        <v>576</v>
       </c>
       <c r="W57">
-        <v>0</v>
+        <v>3730</v>
       </c>
       <c r="X57">
-        <v>10</v>
+        <v>6103.23</v>
       </c>
       <c r="Z57">
         <v>1</v>
@@ -7377,24 +7719,30 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI57">
+        <v>-0.005277973061487857</v>
+      </c>
+      <c r="AJ57">
         <v>1991</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57">
         <v>1</v>
       </c>
       <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>70000</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7454,16 +7802,16 @@
         <v>2795307.2</v>
       </c>
       <c r="U58">
-        <v>9</v>
+        <v>1797.23</v>
       </c>
       <c r="V58">
-        <v>1</v>
+        <v>576</v>
       </c>
       <c r="W58">
-        <v>0</v>
+        <v>3730</v>
       </c>
       <c r="X58">
-        <v>10</v>
+        <v>6103.23</v>
       </c>
       <c r="Z58">
         <v>1</v>
@@ -7493,24 +7841,30 @@
         <v>0.9831948262552406</v>
       </c>
       <c r="AI58">
+        <v>-0.005277973061487857</v>
+      </c>
+      <c r="AJ58">
         <v>1991</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58">
         <v>1</v>
       </c>
       <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>156416</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7570,16 +7924,16 @@
         <v>2223326.21</v>
       </c>
       <c r="U59">
-        <v>8</v>
+        <v>2426</v>
       </c>
       <c r="V59">
-        <v>1</v>
+        <v>674</v>
       </c>
       <c r="W59">
-        <v>0</v>
+        <v>5284</v>
       </c>
       <c r="X59">
-        <v>9</v>
+        <v>8384</v>
       </c>
       <c r="Z59">
         <v>1</v>
@@ -7603,30 +7957,36 @@
         <v>0</v>
       </c>
       <c r="AG59">
-        <v>2267026.93</v>
+        <v>2267026.930000001</v>
       </c>
       <c r="AH59">
         <v>0.9807233344157935</v>
       </c>
       <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
         <v>1991</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59">
         <v>1</v>
       </c>
       <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>1950</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7686,16 +8046,16 @@
         <v>2223326.21</v>
       </c>
       <c r="U60">
-        <v>8</v>
+        <v>2426</v>
       </c>
       <c r="V60">
-        <v>1</v>
+        <v>674</v>
       </c>
       <c r="W60">
-        <v>0</v>
+        <v>5284</v>
       </c>
       <c r="X60">
-        <v>9</v>
+        <v>8384</v>
       </c>
       <c r="Z60">
         <v>1</v>
@@ -7719,30 +8079,36 @@
         <v>10602689</v>
       </c>
       <c r="AG60">
-        <v>2267026.93</v>
+        <v>2267026.930000001</v>
       </c>
       <c r="AH60">
         <v>0.9807233344157935</v>
       </c>
       <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
         <v>1991</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60">
         <v>1</v>
       </c>
       <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>5635.95</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7802,16 +8168,16 @@
         <v>2223326.21</v>
       </c>
       <c r="U61">
-        <v>8</v>
+        <v>2426</v>
       </c>
       <c r="V61">
-        <v>1</v>
+        <v>674</v>
       </c>
       <c r="W61">
-        <v>0</v>
+        <v>5284</v>
       </c>
       <c r="X61">
-        <v>9</v>
+        <v>8384</v>
       </c>
       <c r="Z61">
         <v>1</v>
@@ -7835,30 +8201,36 @@
         <v>0</v>
       </c>
       <c r="AG61">
-        <v>2267026.93</v>
+        <v>2267026.930000001</v>
       </c>
       <c r="AH61">
         <v>0.9807233344157935</v>
       </c>
       <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
         <v>1991</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
         <v>0</v>
       </c>
       <c r="AL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>96200</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7918,16 +8290,16 @@
         <v>2223326.21</v>
       </c>
       <c r="U62">
-        <v>8</v>
+        <v>2426</v>
       </c>
       <c r="V62">
-        <v>1</v>
+        <v>674</v>
       </c>
       <c r="W62">
-        <v>0</v>
+        <v>5284</v>
       </c>
       <c r="X62">
-        <v>9</v>
+        <v>8384</v>
       </c>
       <c r="Z62">
         <v>1</v>
@@ -7951,30 +8323,36 @@
         <v>10535466</v>
       </c>
       <c r="AG62">
-        <v>2267026.93</v>
+        <v>2267026.930000001</v>
       </c>
       <c r="AH62">
         <v>0.9807233344157935</v>
       </c>
       <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
         <v>1991</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62">
         <v>1</v>
       </c>
       <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>3000</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -8034,16 +8412,16 @@
         <v>2223326.21</v>
       </c>
       <c r="U63">
-        <v>8</v>
+        <v>2426</v>
       </c>
       <c r="V63">
-        <v>1</v>
+        <v>674</v>
       </c>
       <c r="W63">
-        <v>0</v>
+        <v>5284</v>
       </c>
       <c r="X63">
-        <v>9</v>
+        <v>8384</v>
       </c>
       <c r="Z63">
         <v>1</v>
@@ -8067,30 +8445,36 @@
         <v>2620200</v>
       </c>
       <c r="AG63">
-        <v>2267026.93</v>
+        <v>2267026.930000001</v>
       </c>
       <c r="AH63">
         <v>0.9807233344157935</v>
       </c>
       <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
         <v>1991</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63">
         <v>1</v>
       </c>
       <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>23140.5</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8150,16 +8534,16 @@
         <v>2223326.21</v>
       </c>
       <c r="U64">
-        <v>8</v>
+        <v>2426</v>
       </c>
       <c r="V64">
-        <v>1</v>
+        <v>674</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>5284</v>
       </c>
       <c r="X64">
-        <v>9</v>
+        <v>8384</v>
       </c>
       <c r="Z64">
         <v>1</v>
@@ -8183,30 +8567,36 @@
         <v>8039920</v>
       </c>
       <c r="AG64">
-        <v>2267026.93</v>
+        <v>2267026.930000001</v>
       </c>
       <c r="AH64">
         <v>0.9807233344157935</v>
       </c>
       <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
         <v>1991</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64">
         <v>1</v>
       </c>
       <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>1516.5</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8266,16 +8656,16 @@
         <v>2223326.21</v>
       </c>
       <c r="U65">
-        <v>8</v>
+        <v>2426</v>
       </c>
       <c r="V65">
-        <v>1</v>
+        <v>674</v>
       </c>
       <c r="W65">
-        <v>0</v>
+        <v>5284</v>
       </c>
       <c r="X65">
-        <v>9</v>
+        <v>8384</v>
       </c>
       <c r="Z65">
         <v>1</v>
@@ -8299,30 +8689,36 @@
         <v>0</v>
       </c>
       <c r="AG65">
-        <v>2267026.93</v>
+        <v>2267026.930000001</v>
       </c>
       <c r="AH65">
         <v>0.9807233344157935</v>
       </c>
       <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
         <v>1991</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
         <v>0</v>
       </c>
       <c r="AL65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>9450</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8382,16 +8778,16 @@
         <v>2223326.21</v>
       </c>
       <c r="U66">
-        <v>8</v>
+        <v>2426</v>
       </c>
       <c r="V66">
-        <v>1</v>
+        <v>674</v>
       </c>
       <c r="W66">
-        <v>0</v>
+        <v>5284</v>
       </c>
       <c r="X66">
-        <v>9</v>
+        <v>8384</v>
       </c>
       <c r="Z66">
         <v>1</v>
@@ -8415,30 +8811,36 @@
         <v>0</v>
       </c>
       <c r="AG66">
-        <v>2267026.93</v>
+        <v>2267026.930000001</v>
       </c>
       <c r="AH66">
         <v>0.9807233344157935</v>
       </c>
       <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
         <v>1991</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
         <v>0</v>
       </c>
       <c r="AL66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>22692.5</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -8498,16 +8900,16 @@
         <v>2223326.21</v>
       </c>
       <c r="U67">
-        <v>8</v>
+        <v>2426</v>
       </c>
       <c r="V67">
-        <v>1</v>
+        <v>674</v>
       </c>
       <c r="W67">
-        <v>0</v>
+        <v>5284</v>
       </c>
       <c r="X67">
-        <v>9</v>
+        <v>8384</v>
       </c>
       <c r="Z67">
         <v>1</v>
@@ -8531,30 +8933,36 @@
         <v>0</v>
       </c>
       <c r="AG67">
-        <v>2267026.93</v>
+        <v>2267026.930000001</v>
       </c>
       <c r="AH67">
         <v>0.9807233344157935</v>
       </c>
       <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
         <v>1991</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
         <v>0</v>
       </c>
       <c r="AL67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>127500</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -8614,16 +9022,16 @@
         <v>2223326.21</v>
       </c>
       <c r="U68">
-        <v>8</v>
+        <v>2426</v>
       </c>
       <c r="V68">
-        <v>1</v>
+        <v>674</v>
       </c>
       <c r="W68">
-        <v>0</v>
+        <v>5284</v>
       </c>
       <c r="X68">
-        <v>9</v>
+        <v>8384</v>
       </c>
       <c r="Z68">
         <v>1</v>
@@ -8647,30 +9055,36 @@
         <v>8486450</v>
       </c>
       <c r="AG68">
-        <v>2267026.93</v>
+        <v>2267026.930000001</v>
       </c>
       <c r="AH68">
         <v>0.9807233344157935</v>
       </c>
       <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
         <v>1991</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
         <v>0</v>
       </c>
       <c r="AL68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>5000</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8730,16 +9144,16 @@
         <v>2223326.21</v>
       </c>
       <c r="U69">
-        <v>8</v>
+        <v>2426</v>
       </c>
       <c r="V69">
-        <v>1</v>
+        <v>674</v>
       </c>
       <c r="W69">
-        <v>0</v>
+        <v>5284</v>
       </c>
       <c r="X69">
-        <v>9</v>
+        <v>8384</v>
       </c>
       <c r="Z69">
         <v>1</v>
@@ -8763,30 +9177,36 @@
         <v>6615978</v>
       </c>
       <c r="AG69">
-        <v>2267026.93</v>
+        <v>2267026.930000001</v>
       </c>
       <c r="AH69">
         <v>0.9807233344157935</v>
       </c>
       <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
         <v>1991</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69">
         <v>1</v>
       </c>
       <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>22446</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -8846,16 +9266,16 @@
         <v>2223326.21</v>
       </c>
       <c r="U70">
-        <v>8</v>
+        <v>2426</v>
       </c>
       <c r="V70">
-        <v>1</v>
+        <v>674</v>
       </c>
       <c r="W70">
-        <v>0</v>
+        <v>5284</v>
       </c>
       <c r="X70">
-        <v>9</v>
+        <v>8384</v>
       </c>
       <c r="Z70">
         <v>1</v>
@@ -8879,30 +9299,36 @@
         <v>5988850</v>
       </c>
       <c r="AG70">
-        <v>2267026.93</v>
+        <v>2267026.930000001</v>
       </c>
       <c r="AH70">
         <v>0.9807233344157935</v>
       </c>
       <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
         <v>1991</v>
       </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
       <c r="AK70">
         <v>0</v>
       </c>
       <c r="AL70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>18786.62</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8962,16 +9388,16 @@
         <v>2223326.21</v>
       </c>
       <c r="U71">
-        <v>8</v>
+        <v>2426</v>
       </c>
       <c r="V71">
-        <v>1</v>
+        <v>674</v>
       </c>
       <c r="W71">
-        <v>0</v>
+        <v>5284</v>
       </c>
       <c r="X71">
-        <v>9</v>
+        <v>8384</v>
       </c>
       <c r="Z71">
         <v>1</v>
@@ -8995,30 +9421,36 @@
         <v>0</v>
       </c>
       <c r="AG71">
-        <v>2267026.93</v>
+        <v>2267026.930000001</v>
       </c>
       <c r="AH71">
         <v>0.9807233344157935</v>
       </c>
       <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
         <v>1991</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
       <c r="AK71">
         <v>0</v>
       </c>
       <c r="AL71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>21627.605</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -9078,16 +9510,16 @@
         <v>1443975.33</v>
       </c>
       <c r="U72">
-        <v>8</v>
+        <v>2553</v>
       </c>
       <c r="V72">
-        <v>1</v>
+        <v>767</v>
       </c>
       <c r="W72">
-        <v>0</v>
+        <v>5086</v>
       </c>
       <c r="X72">
-        <v>9</v>
+        <v>8406</v>
       </c>
       <c r="Z72">
         <v>1</v>
@@ -9117,24 +9549,30 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
         <v>1991</v>
       </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
       <c r="AK72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72">
         <v>1</v>
       </c>
       <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>1950</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -9194,16 +9632,16 @@
         <v>1443975.33</v>
       </c>
       <c r="U73">
-        <v>8</v>
+        <v>2553</v>
       </c>
       <c r="V73">
-        <v>1</v>
+        <v>767</v>
       </c>
       <c r="W73">
-        <v>0</v>
+        <v>5086</v>
       </c>
       <c r="X73">
-        <v>9</v>
+        <v>8406</v>
       </c>
       <c r="Z73">
         <v>1</v>
@@ -9233,24 +9671,30 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
         <v>1991</v>
       </c>
-      <c r="AJ73">
-        <v>0</v>
-      </c>
       <c r="AK73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73">
         <v>1</v>
       </c>
       <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>5635.95</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9310,16 +9754,16 @@
         <v>1443975.33</v>
       </c>
       <c r="U74">
-        <v>8</v>
+        <v>2553</v>
       </c>
       <c r="V74">
-        <v>1</v>
+        <v>767</v>
       </c>
       <c r="W74">
-        <v>0</v>
+        <v>5086</v>
       </c>
       <c r="X74">
-        <v>9</v>
+        <v>8406</v>
       </c>
       <c r="Z74">
         <v>1</v>
@@ -9349,24 +9793,30 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
         <v>1991</v>
       </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
       <c r="AK74">
         <v>0</v>
       </c>
       <c r="AL74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>96200</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -9426,16 +9876,16 @@
         <v>1443975.33</v>
       </c>
       <c r="U75">
-        <v>8</v>
+        <v>2553</v>
       </c>
       <c r="V75">
-        <v>1</v>
+        <v>767</v>
       </c>
       <c r="W75">
-        <v>0</v>
+        <v>5086</v>
       </c>
       <c r="X75">
-        <v>9</v>
+        <v>8406</v>
       </c>
       <c r="Z75">
         <v>1</v>
@@ -9465,24 +9915,30 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
         <v>1991</v>
       </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
       <c r="AK75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL75">
         <v>1</v>
       </c>
       <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>3000</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9542,16 +9998,16 @@
         <v>1443975.33</v>
       </c>
       <c r="U76">
-        <v>8</v>
+        <v>2553</v>
       </c>
       <c r="V76">
-        <v>1</v>
+        <v>767</v>
       </c>
       <c r="W76">
-        <v>0</v>
+        <v>5086</v>
       </c>
       <c r="X76">
-        <v>9</v>
+        <v>8406</v>
       </c>
       <c r="Z76">
         <v>1</v>
@@ -9581,24 +10037,30 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
         <v>1991</v>
       </c>
-      <c r="AJ76">
-        <v>0</v>
-      </c>
       <c r="AK76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL76">
         <v>1</v>
       </c>
       <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>23140.5</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9658,16 +10120,16 @@
         <v>1443975.33</v>
       </c>
       <c r="U77">
-        <v>8</v>
+        <v>2553</v>
       </c>
       <c r="V77">
-        <v>1</v>
+        <v>767</v>
       </c>
       <c r="W77">
-        <v>0</v>
+        <v>5086</v>
       </c>
       <c r="X77">
-        <v>9</v>
+        <v>8406</v>
       </c>
       <c r="Z77">
         <v>1</v>
@@ -9697,24 +10159,30 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
         <v>1991</v>
       </c>
-      <c r="AJ77">
-        <v>0</v>
-      </c>
       <c r="AK77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77">
         <v>1</v>
       </c>
       <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
         <v>1516.5</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9774,16 +10242,16 @@
         <v>1443975.33</v>
       </c>
       <c r="U78">
-        <v>8</v>
+        <v>2553</v>
       </c>
       <c r="V78">
-        <v>1</v>
+        <v>767</v>
       </c>
       <c r="W78">
-        <v>0</v>
+        <v>5086</v>
       </c>
       <c r="X78">
-        <v>9</v>
+        <v>8406</v>
       </c>
       <c r="Z78">
         <v>1</v>
@@ -9813,24 +10281,30 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
         <v>1991</v>
       </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
       <c r="AK78">
         <v>0</v>
       </c>
       <c r="AL78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>9450</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9890,16 +10364,16 @@
         <v>1443975.33</v>
       </c>
       <c r="U79">
-        <v>8</v>
+        <v>2553</v>
       </c>
       <c r="V79">
-        <v>1</v>
+        <v>767</v>
       </c>
       <c r="W79">
-        <v>0</v>
+        <v>5086</v>
       </c>
       <c r="X79">
-        <v>9</v>
+        <v>8406</v>
       </c>
       <c r="Z79">
         <v>1</v>
@@ -9929,24 +10403,30 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
         <v>1991</v>
       </c>
-      <c r="AJ79">
-        <v>0</v>
-      </c>
       <c r="AK79">
         <v>0</v>
       </c>
       <c r="AL79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
         <v>22692.5</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -10006,16 +10486,16 @@
         <v>1443975.33</v>
       </c>
       <c r="U80">
-        <v>8</v>
+        <v>2553</v>
       </c>
       <c r="V80">
-        <v>1</v>
+        <v>767</v>
       </c>
       <c r="W80">
-        <v>0</v>
+        <v>5086</v>
       </c>
       <c r="X80">
-        <v>9</v>
+        <v>8406</v>
       </c>
       <c r="Z80">
         <v>1</v>
@@ -10045,24 +10525,30 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
         <v>1991</v>
       </c>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
       <c r="AK80">
         <v>0</v>
       </c>
       <c r="AL80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
         <v>127500</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -10122,16 +10608,16 @@
         <v>1443975.33</v>
       </c>
       <c r="U81">
-        <v>8</v>
+        <v>2553</v>
       </c>
       <c r="V81">
-        <v>1</v>
+        <v>767</v>
       </c>
       <c r="W81">
-        <v>0</v>
+        <v>5086</v>
       </c>
       <c r="X81">
-        <v>9</v>
+        <v>8406</v>
       </c>
       <c r="Z81">
         <v>1</v>
@@ -10161,24 +10647,30 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
         <v>1991</v>
       </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
       <c r="AK81">
         <v>0</v>
       </c>
       <c r="AL81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -10238,16 +10730,16 @@
         <v>1443975.33</v>
       </c>
       <c r="U82">
-        <v>8</v>
+        <v>2553</v>
       </c>
       <c r="V82">
-        <v>1</v>
+        <v>767</v>
       </c>
       <c r="W82">
-        <v>0</v>
+        <v>5086</v>
       </c>
       <c r="X82">
-        <v>9</v>
+        <v>8406</v>
       </c>
       <c r="Z82">
         <v>1</v>
@@ -10277,24 +10769,30 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
         <v>1991</v>
       </c>
-      <c r="AJ82">
-        <v>0</v>
-      </c>
       <c r="AK82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL82">
         <v>1</v>
       </c>
       <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
         <v>22446</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -10354,16 +10852,16 @@
         <v>1443975.33</v>
       </c>
       <c r="U83">
-        <v>8</v>
+        <v>2553</v>
       </c>
       <c r="V83">
-        <v>1</v>
+        <v>767</v>
       </c>
       <c r="W83">
-        <v>0</v>
+        <v>5086</v>
       </c>
       <c r="X83">
-        <v>9</v>
+        <v>8406</v>
       </c>
       <c r="Z83">
         <v>1</v>
@@ -10393,24 +10891,30 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
         <v>1991</v>
       </c>
-      <c r="AJ83">
-        <v>0</v>
-      </c>
       <c r="AK83">
         <v>0</v>
       </c>
       <c r="AL83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
         <v>18786.62</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -10470,16 +10974,16 @@
         <v>1443975.33</v>
       </c>
       <c r="U84">
-        <v>8</v>
+        <v>2553</v>
       </c>
       <c r="V84">
-        <v>1</v>
+        <v>767</v>
       </c>
       <c r="W84">
-        <v>0</v>
+        <v>5086</v>
       </c>
       <c r="X84">
-        <v>9</v>
+        <v>8406</v>
       </c>
       <c r="Z84">
         <v>1</v>
@@ -10509,24 +11013,30 @@
         <v>0.9480390236073826</v>
       </c>
       <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
         <v>1991</v>
       </c>
-      <c r="AJ84">
-        <v>0</v>
-      </c>
       <c r="AK84">
         <v>0</v>
       </c>
       <c r="AL84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>21627.605</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -10586,16 +11096,16 @@
         <v>1689709</v>
       </c>
       <c r="U85">
-        <v>7</v>
+        <v>2806</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="W85">
-        <v>0</v>
+        <v>4270</v>
       </c>
       <c r="X85">
-        <v>9</v>
+        <v>7676</v>
       </c>
       <c r="Z85">
         <v>1</v>
@@ -10625,24 +11135,30 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
         <v>1991</v>
       </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
       <c r="AK85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL85">
         <v>1</v>
       </c>
       <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
         <v>1229</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10702,16 +11218,16 @@
         <v>1689709</v>
       </c>
       <c r="U86">
-        <v>7</v>
+        <v>2806</v>
       </c>
       <c r="V86">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="W86">
-        <v>0</v>
+        <v>4270</v>
       </c>
       <c r="X86">
-        <v>9</v>
+        <v>7676</v>
       </c>
       <c r="Z86">
         <v>1</v>
@@ -10741,24 +11257,30 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
         <v>1991</v>
       </c>
-      <c r="AJ86">
-        <v>0</v>
-      </c>
       <c r="AK86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL86">
         <v>1</v>
       </c>
       <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
         <v>322790</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10818,16 +11340,16 @@
         <v>1689709</v>
       </c>
       <c r="U87">
-        <v>7</v>
+        <v>2806</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="W87">
-        <v>0</v>
+        <v>4270</v>
       </c>
       <c r="X87">
-        <v>9</v>
+        <v>7676</v>
       </c>
       <c r="Z87">
         <v>1</v>
@@ -10857,24 +11379,30 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
         <v>1991</v>
       </c>
-      <c r="AJ87">
-        <v>0</v>
-      </c>
       <c r="AK87">
         <v>0</v>
       </c>
       <c r="AL87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
         <v>202182</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10934,16 +11462,16 @@
         <v>1689709</v>
       </c>
       <c r="U88">
-        <v>7</v>
+        <v>2806</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="W88">
-        <v>0</v>
+        <v>4270</v>
       </c>
       <c r="X88">
-        <v>9</v>
+        <v>7676</v>
       </c>
       <c r="Z88">
         <v>1</v>
@@ -10973,30 +11501,36 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
         <v>1991</v>
       </c>
-      <c r="AJ88">
-        <v>0</v>
-      </c>
       <c r="AK88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL88">
         <v>1</v>
       </c>
       <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
         <v>36258</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11050,16 +11584,16 @@
         <v>1689709</v>
       </c>
       <c r="U89">
-        <v>7</v>
+        <v>2806</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="W89">
-        <v>0</v>
+        <v>4270</v>
       </c>
       <c r="X89">
-        <v>9</v>
+        <v>7676</v>
       </c>
       <c r="Z89">
         <v>1</v>
@@ -11089,24 +11623,30 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
         <v>1991</v>
       </c>
-      <c r="AJ89">
-        <v>0</v>
-      </c>
       <c r="AK89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL89">
         <v>1</v>
       </c>
       <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
         <v>49521</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -11166,16 +11706,16 @@
         <v>1689709</v>
       </c>
       <c r="U90">
-        <v>7</v>
+        <v>2806</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="W90">
-        <v>0</v>
+        <v>4270</v>
       </c>
       <c r="X90">
-        <v>9</v>
+        <v>7676</v>
       </c>
       <c r="Z90">
         <v>1</v>
@@ -11205,24 +11745,30 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
         <v>1991</v>
       </c>
-      <c r="AJ90">
-        <v>0</v>
-      </c>
       <c r="AK90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL90">
         <v>1</v>
       </c>
       <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
         <v>108374</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -11282,16 +11828,16 @@
         <v>1689709</v>
       </c>
       <c r="U91">
-        <v>7</v>
+        <v>2806</v>
       </c>
       <c r="V91">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="W91">
-        <v>0</v>
+        <v>4270</v>
       </c>
       <c r="X91">
-        <v>9</v>
+        <v>7676</v>
       </c>
       <c r="Z91">
         <v>1</v>
@@ -11321,24 +11867,30 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
         <v>1991</v>
       </c>
-      <c r="AJ91">
-        <v>0</v>
-      </c>
       <c r="AK91">
         <v>0</v>
       </c>
       <c r="AL91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
         <v>38992</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -11398,16 +11950,16 @@
         <v>1689709</v>
       </c>
       <c r="U92">
-        <v>7</v>
+        <v>2806</v>
       </c>
       <c r="V92">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="W92">
-        <v>0</v>
+        <v>4270</v>
       </c>
       <c r="X92">
-        <v>9</v>
+        <v>7676</v>
       </c>
       <c r="Z92">
         <v>1</v>
@@ -11437,24 +11989,30 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
         <v>1991</v>
       </c>
-      <c r="AJ92">
-        <v>0</v>
-      </c>
       <c r="AK92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL92">
         <v>1</v>
       </c>
       <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
         <v>60000</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -11514,16 +12072,16 @@
         <v>1689709</v>
       </c>
       <c r="U93">
-        <v>7</v>
+        <v>2806</v>
       </c>
       <c r="V93">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="W93">
-        <v>0</v>
+        <v>4270</v>
       </c>
       <c r="X93">
-        <v>9</v>
+        <v>7676</v>
       </c>
       <c r="Z93">
         <v>1</v>
@@ -11553,24 +12111,30 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
         <v>1991</v>
       </c>
-      <c r="AJ93">
-        <v>0</v>
-      </c>
       <c r="AK93">
         <v>0</v>
       </c>
       <c r="AL93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
         <v>43691</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -11630,16 +12194,16 @@
         <v>1689709</v>
       </c>
       <c r="U94">
-        <v>7</v>
+        <v>2806</v>
       </c>
       <c r="V94">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="W94">
-        <v>0</v>
+        <v>4270</v>
       </c>
       <c r="X94">
-        <v>9</v>
+        <v>7676</v>
       </c>
       <c r="Z94">
         <v>1</v>
@@ -11669,24 +12233,30 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AJ94">
         <v>1991</v>
       </c>
-      <c r="AJ94">
-        <v>0</v>
-      </c>
       <c r="AK94">
         <v>0</v>
       </c>
       <c r="AL94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
         <v>403944</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -11746,16 +12316,16 @@
         <v>1689709</v>
       </c>
       <c r="U95">
-        <v>7</v>
+        <v>2806</v>
       </c>
       <c r="V95">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="W95">
-        <v>0</v>
+        <v>4270</v>
       </c>
       <c r="X95">
-        <v>9</v>
+        <v>7676</v>
       </c>
       <c r="Z95">
         <v>1</v>
@@ -11785,24 +12355,30 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
         <v>1991</v>
       </c>
-      <c r="AJ95">
-        <v>0</v>
-      </c>
       <c r="AK95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL95">
         <v>1</v>
       </c>
       <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
+      <c r="AO95">
         <v>100761</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -11862,16 +12438,16 @@
         <v>1689709</v>
       </c>
       <c r="U96">
-        <v>7</v>
+        <v>2806</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="W96">
-        <v>0</v>
+        <v>4270</v>
       </c>
       <c r="X96">
-        <v>9</v>
+        <v>7676</v>
       </c>
       <c r="Z96">
         <v>1</v>
@@ -11901,24 +12477,30 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
         <v>1991</v>
       </c>
-      <c r="AJ96">
-        <v>0</v>
-      </c>
       <c r="AK96">
         <v>0</v>
       </c>
       <c r="AL96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+      <c r="AO96">
         <v>56902</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -11978,16 +12560,16 @@
         <v>1689709</v>
       </c>
       <c r="U97">
-        <v>7</v>
+        <v>2806</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="W97">
-        <v>0</v>
+        <v>4270</v>
       </c>
       <c r="X97">
-        <v>9</v>
+        <v>7676</v>
       </c>
       <c r="Z97">
         <v>1</v>
@@ -12017,30 +12599,36 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI97">
+        <v>0</v>
+      </c>
+      <c r="AJ97">
         <v>1991</v>
       </c>
-      <c r="AJ97">
-        <v>0</v>
-      </c>
       <c r="AK97">
         <v>0</v>
       </c>
       <c r="AL97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM97">
+        <v>0</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
         <v>61407</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -12094,16 +12682,16 @@
         <v>1689709</v>
       </c>
       <c r="U98">
-        <v>7</v>
+        <v>2806</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="W98">
-        <v>0</v>
+        <v>4270</v>
       </c>
       <c r="X98">
-        <v>9</v>
+        <v>7676</v>
       </c>
       <c r="Z98">
         <v>1</v>
@@ -12133,24 +12721,30 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
         <v>1991</v>
       </c>
-      <c r="AJ98">
-        <v>0</v>
-      </c>
       <c r="AK98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL98">
         <v>1</v>
       </c>
       <c r="AM98">
+        <v>0</v>
+      </c>
+      <c r="AN98">
+        <v>1</v>
+      </c>
+      <c r="AO98">
         <v>12000</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -12210,16 +12804,16 @@
         <v>1689709</v>
       </c>
       <c r="U99">
-        <v>7</v>
+        <v>2806</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="W99">
-        <v>0</v>
+        <v>4270</v>
       </c>
       <c r="X99">
-        <v>9</v>
+        <v>7676</v>
       </c>
       <c r="Z99">
         <v>1</v>
@@ -12249,18 +12843,24 @@
         <v>0.985879655291118</v>
       </c>
       <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99">
         <v>1991</v>
       </c>
-      <c r="AJ99">
-        <v>0</v>
-      </c>
       <c r="AK99">
         <v>0</v>
       </c>
       <c r="AL99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <v>1</v>
+      </c>
+      <c r="AO99">
         <v>7300</v>
       </c>
     </row>

--- a/output/juan ciudad.xlsx
+++ b/output/juan ciudad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -401,9 +401,6 @@
   </si>
   <si>
     <t>2016_cuba</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>2016_ecuador</t>
@@ -916,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5520</v>
+        <v>5596.139681459835</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1038,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1160,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1282,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1404,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1526,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1120</v>
+        <v>1268.249210347625</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1648,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1330</v>
+        <v>1286.515571617672</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1770,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>460</v>
+        <v>513.4456986202239</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1892,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>420</v>
+        <v>401.8350013668368</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2014,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>960</v>
+        <v>951.6879611168786</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2136,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5610</v>
+        <v>5730.354774594881</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2258,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1730</v>
+        <v>1904.346464968814</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2380,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9040</v>
+        <v>9271.398233246389</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2502,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2624,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2746,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2868,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2460</v>
+        <v>2217.474008566157</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2990,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1220</v>
+        <v>1357.563719132622</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3112,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>800</v>
+        <v>1037.747039954749</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3234,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1380</v>
+        <v>1446.371630707023</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3356,7 +3353,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>520</v>
+        <v>538.1162350013198</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3478,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1310</v>
+        <v>1263.452411343738</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3600,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>430</v>
+        <v>417.6031683854853</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3722,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>610</v>
+        <v>553.2014555484933</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3844,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>5930</v>
+        <v>5885.254624554112</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3966,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1860</v>
+        <v>1939.33862702996</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4088,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>9310</v>
+        <v>9477.887185090232</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4210,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>10710</v>
+        <v>10883.31535948899</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4332,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4454,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4576,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4698,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4820,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>5050</v>
+        <v>4961.234688573883</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4942,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>590</v>
+        <v>573.9239887389259</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5064,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1360</v>
+        <v>1325.930225429421</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5186,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>560</v>
+        <v>564.5208442217756</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5308,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1540</v>
+        <v>1543.763984230257</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5430,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>1330</v>
+        <v>1291.622214254295</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5552,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1480</v>
+        <v>1469.177610078392</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5674,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>530</v>
+        <v>470.3014046213344</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5796,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5918,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6040,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6162,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>1950</v>
+        <v>1982.009737844954</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6284,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>6280</v>
+        <v>6051.685746144485</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6406,7 +6403,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>620</v>
+        <v>593.1620921048029</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6528,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>1430</v>
+        <v>1360.10887014004</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6650,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>630</v>
+        <v>597.3813896804552</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6772,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1870</v>
+        <v>1618.597849849475</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6894,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>1360</v>
+        <v>1291.415042301529</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7016,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>1520</v>
+        <v>1544.619247249133</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7138,7 +7135,7 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>660</v>
+        <v>555.2055623950326</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7260,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7382,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7504,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7626,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>1990</v>
+        <v>2000.792448761861</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7748,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>6640</v>
+        <v>6203.843262938323</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7870,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>12350</v>
+        <v>10398.69400694643</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -7992,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8114,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>1480</v>
+        <v>1401.753174264641</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8236,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>8190</v>
+        <v>7449.08671983612</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8358,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>6840</v>
+        <v>6255.426161047989</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8480,7 +8477,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>3450</v>
+        <v>2612.856880840196</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8602,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>1920</v>
+        <v>1627.760281433693</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8724,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>1560</v>
+        <v>1640.18070024053</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8846,7 +8843,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>630</v>
+        <v>586.2293607842975</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -8968,7 +8965,7 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>650</v>
+        <v>558.2093442539386</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9090,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9212,7 +9209,7 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>1380</v>
+        <v>1338.716747746975</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9334,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>700</v>
+        <v>567.8342670439314</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9456,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>12600</v>
+        <v>10568.15780870825</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9578,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9700,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>1440</v>
+        <v>1441.783971398429</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -9822,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>7330</v>
+        <v>7580.275568826287</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -9944,7 +9941,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>7230</v>
+        <v>6522.736799041846</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10066,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>3510</v>
+        <v>2735.187532014817</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10188,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>1960</v>
+        <v>1625.905825842452</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -10310,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>1600</v>
+        <v>1751.664428859304</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10432,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>630</v>
+        <v>571.453129531788</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10554,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>600</v>
+        <v>579.0880693780265</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10676,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -10798,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>1320</v>
+        <v>1384.519227335143</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -10920,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>550</v>
+        <v>441.1376640642927</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11042,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>12220</v>
+        <v>10239.48134799327</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11164,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>3040</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -11286,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>1380</v>
+        <v>1469.192636109792</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -11408,7 +11405,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>6460</v>
+        <v>7633.969039669125</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11529,8 +11526,8 @@
       <c r="B89">
         <v>0</v>
       </c>
-      <c r="C89" t="s">
-        <v>129</v>
+      <c r="C89">
+        <v>6550.274372976741</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11646,13 +11643,13 @@
     </row>
     <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -11768,13 +11765,13 @@
     </row>
     <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>1830</v>
+        <v>1644.598009122967</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -11890,13 +11887,13 @@
     </row>
     <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>2110</v>
+        <v>2111.193164269742</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -12012,13 +12009,13 @@
     </row>
     <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>1690</v>
+        <v>1875.732161108182</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -12134,13 +12131,13 @@
     </row>
     <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94">
-        <v>620</v>
+        <v>548.2681436079887</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -12256,13 +12253,13 @@
     </row>
     <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -12378,13 +12375,13 @@
     </row>
     <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96">
-        <v>1270</v>
+        <v>1431.756130822538</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -12500,13 +12497,13 @@
     </row>
     <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97">
-        <v>490</v>
+        <v>457.8330917196623</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -12622,13 +12619,13 @@
     </row>
     <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
-      <c r="C98" t="s">
-        <v>129</v>
+      <c r="C98">
+        <v>0</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -12744,13 +12741,13 @@
     </row>
     <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>2670</v>
+        <v>2448.861248735403</v>
       </c>
       <c r="D99">
         <v>0</v>

--- a/output/juan ciudad.xlsx
+++ b/output/juan ciudad.xlsx
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>4159</v>
+        <v>26000</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>87677.5</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>20958.52</v>
+        <v>34461</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>57609.5</v>
+        <v>10000</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>9371.459999999999</v>
+        <v>2938</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>27900</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>5684.5</v>
+        <v>28637</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -7263,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1500</v>
+        <v>660</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -7385,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>7696</v>
+        <v>218486</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -7507,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>27500</v>
+        <v>50784</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -7629,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>70000</v>
+        <v>80915</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>156416</v>
+        <v>46000</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -9459,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>5635.95</v>
+        <v>27500</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -9703,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>96200</v>
+        <v>87677.5</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -9947,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>23140.5</v>
+        <v>156416</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -10069,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>1516.5</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>9450</v>
+        <v>57609.5</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -10313,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>22692.5</v>
+        <v>27900</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -10426,7 +10426,7 @@
         <v>119</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80">
         <v>571.453129531788</v>
@@ -10435,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>127500</v>
+        <v>20958.52</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -10548,7 +10548,7 @@
         <v>120</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81">
         <v>579.0880693780265</v>
@@ -10557,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>22446</v>
+        <v>7696</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -10792,7 +10792,7 @@
         <v>122</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>1384.519227335143</v>
@@ -10801,7 +10801,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>18786.62</v>
+        <v>9371.459999999999</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>123</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84">
         <v>441.1376640642927</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>21627.605</v>
+        <v>5684.5</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -12625,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>10984</v>
       </c>
       <c r="D98">
         <v>0</v>
